--- a/历史实验/6.6实验数据/数据.xlsx
+++ b/历史实验/6.6实验数据/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="18588" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,40 +40,28 @@
     <t>1Sheeld</t>
   </si>
   <si>
-    <t>OpenKeychain</t>
-  </si>
-  <si>
-    <t>iNaturalist</t>
+    <t>Lincal</t>
   </si>
   <si>
     <t>AFWall+</t>
   </si>
   <si>
-    <t>Conversations</t>
+    <t>Simple-Solitaire</t>
   </si>
   <si>
-    <t>K9Mail</t>
+    <t>SteamGifts</t>
   </si>
   <si>
     <t>AnkiDroid</t>
   </si>
   <si>
-    <t>Calendula</t>
+    <t>Padland</t>
   </si>
   <si>
-    <t>CSipSimple</t>
+    <t>OpenGPSTracker</t>
   </si>
   <si>
     <t>AntennaPod</t>
-  </si>
-  <si>
-    <t>Evercam</t>
-  </si>
-  <si>
-    <t>SuntimesWidget</t>
-  </si>
-  <si>
-    <t>EteSync</t>
   </si>
   <si>
     <t>PassAndroid</t>
@@ -82,19 +70,31 @@
     <t>syncthing</t>
   </si>
   <si>
-    <t>OpenGPSTracker</t>
+    <t>Calendula</t>
   </si>
   <si>
-    <t>SteamGifts</t>
+    <t>EteSync</t>
   </si>
   <si>
-    <t>Padland</t>
+    <t>Conversations</t>
   </si>
   <si>
-    <t>Simple-Solitaire</t>
+    <t>SuntimesWidget</t>
   </si>
   <si>
-    <t>Lincal</t>
+    <t>CSipSimple</t>
+  </si>
+  <si>
+    <t>Evercam</t>
+  </si>
+  <si>
+    <t>K9Mail</t>
+  </si>
+  <si>
+    <t>iNaturalist</t>
+  </si>
+  <si>
+    <t>OpenKeychain</t>
   </si>
 </sst>
 </file>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -125,25 +125,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,7 +146,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,21 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -207,15 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,23 +222,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +240,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +260,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -289,7 +289,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,7 +379,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,163 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,26 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,17 +568,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,64 +982,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>Lincal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1Sheeld</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Simple-Solitaire</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SteamGifts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Padland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGPSTracker</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PassAndroid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>syncthing</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AFWall+</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>EteSync</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SuntimesWidget</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AntennaPod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AnkiDroid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Evercam</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CSipSimple</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Calendula</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K9Mail</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Conversations</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>iNaturalist</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>OpenKeychain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iNaturalist</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Conversations</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>K9Mail</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Calendula</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSipSimple</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Evercam</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>AnkiDroid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AntennaPod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SuntimesWidget</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>EteSync</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AFWall+</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>PassAndroid</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>syncthing</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>OpenGPSTracker</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>SteamGifts</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Padland</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Simple-Solitaire</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1Sheeld</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Lincal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1051,64 +1051,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,64 +1150,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>Lincal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1Sheeld</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Simple-Solitaire</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SteamGifts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Padland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGPSTracker</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PassAndroid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>syncthing</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AFWall+</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>EteSync</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SuntimesWidget</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AntennaPod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AnkiDroid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Evercam</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CSipSimple</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Calendula</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K9Mail</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Conversations</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>iNaturalist</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>OpenKeychain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iNaturalist</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Conversations</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>K9Mail</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Calendula</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSipSimple</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Evercam</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>AnkiDroid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AntennaPod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SuntimesWidget</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>EteSync</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AFWall+</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>PassAndroid</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>syncthing</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>OpenGPSTracker</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>SteamGifts</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Padland</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Simple-Solitaire</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1Sheeld</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Lincal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1219,64 +1219,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,64 +1334,64 @@
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>Lincal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1Sheeld</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Simple-Solitaire</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SteamGifts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Padland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGPSTracker</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PassAndroid</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>syncthing</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AFWall+</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>EteSync</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SuntimesWidget</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AntennaPod</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AnkiDroid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Evercam</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CSipSimple</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Calendula</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K9Mail</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Conversations</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>iNaturalist</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>OpenKeychain</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iNaturalist</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Conversations</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>K9Mail</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Calendula</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSipSimple</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Evercam</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>AnkiDroid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AntennaPod</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>SuntimesWidget</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>EteSync</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AFWall+</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>PassAndroid</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>syncthing</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>OpenGPSTracker</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>SteamGifts</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Padland</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Simple-Solitaire</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1Sheeld</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Lincal</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1403,64 +1403,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6364</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9091</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7391</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7917</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9091</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6444</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.4706</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5172</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7917</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9091</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.4211</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2941</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9286</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5385</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6154</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6364</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,7 +2592,7 @@
   <dimension ref="A3:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2641,13 +2641,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="11">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="G4" s="11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H4" s="12">
-        <v>0.4706</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2660,22 +2660,22 @@
       <c r="C5" s="15">
         <v>18</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11">
-        <v>45</v>
-      </c>
-      <c r="G5" s="11">
-        <v>29</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.6444</v>
+      <c r="E5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17">
+        <v>5</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8">
         <v>14</v>
@@ -2684,21 +2684,21 @@
         <v>16</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="11">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G6" s="11">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H6" s="12">
-        <v>0.9091</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="14">
         <v>2</v>
@@ -2707,21 +2707,21 @@
         <v>2</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="17">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G7" s="17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H7" s="18">
-        <v>0.5172</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>41</v>
@@ -2730,21 +2730,21 @@
         <v>130</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="11">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G8" s="11">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H8" s="12">
-        <v>0.7917</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14">
         <v>11</v>
@@ -2752,22 +2752,22 @@
       <c r="C9" s="15">
         <v>71</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="17">
-        <v>23</v>
-      </c>
-      <c r="G9" s="17">
-        <v>17</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.7391</v>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11">
+        <v>11</v>
+      </c>
+      <c r="G9" s="11">
+        <v>7</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.6364</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8">
         <v>22</v>
@@ -2775,22 +2775,22 @@
       <c r="C10" s="9">
         <v>41</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="17">
-        <v>22</v>
-      </c>
-      <c r="G10" s="17">
-        <v>20</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.9091</v>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11">
+        <v>13</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.5385</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14">
         <v>9</v>
@@ -2799,21 +2799,21 @@
         <v>24</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="17">
         <v>13</v>
       </c>
-      <c r="F11" s="17">
-        <v>21</v>
-      </c>
       <c r="G11" s="17">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H11" s="18">
-        <v>1</v>
+        <v>0.6154</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8">
         <v>43</v>
@@ -2821,22 +2821,22 @@
       <c r="C12" s="9">
         <v>156</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="11">
-        <v>20</v>
-      </c>
-      <c r="G12" s="11">
-        <v>16</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.8</v>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="17">
+        <v>14</v>
+      </c>
+      <c r="G12" s="17">
+        <v>13</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.9286</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -2845,21 +2845,21 @@
         <v>2</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="17">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H13" s="18">
-        <v>0.4211</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8">
         <v>102</v>
@@ -2868,21 +2868,21 @@
         <v>139</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="17">
         <v>19</v>
       </c>
-      <c r="F14" s="17">
-        <v>17</v>
-      </c>
       <c r="G14" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H14" s="18">
-        <v>0.2941</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B15" s="14">
         <v>28</v>
@@ -2890,22 +2890,22 @@
       <c r="C15" s="15">
         <v>30</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="17">
-        <v>14</v>
-      </c>
-      <c r="G15" s="17">
-        <v>13</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.9286</v>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11">
+        <v>16</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8">
         <v>33</v>
@@ -2913,22 +2913,22 @@
       <c r="C16" s="9">
         <v>53</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="11">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11">
-        <v>7</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0.5385</v>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="17">
+        <v>21</v>
+      </c>
+      <c r="G16" s="17">
+        <v>21</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="14">
         <v>12</v>
@@ -2937,16 +2937,16 @@
         <v>24</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="17">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G17" s="17">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H17" s="18">
-        <v>0.6154</v>
+        <v>0.9091</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2959,17 +2959,17 @@
       <c r="C18" s="9">
         <v>62</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="11">
-        <v>11</v>
-      </c>
-      <c r="G18" s="11">
-        <v>7</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0.6364</v>
+      <c r="F18" s="17">
+        <v>23</v>
+      </c>
+      <c r="G18" s="17">
+        <v>17</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.7391</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2982,22 +2982,22 @@
       <c r="C19" s="15">
         <v>4</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="17">
-        <v>10</v>
-      </c>
-      <c r="G19" s="17">
-        <v>8</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.8</v>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11">
+        <v>24</v>
+      </c>
+      <c r="G19" s="11">
+        <v>19</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.7917</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8">
         <v>12</v>
@@ -3005,22 +3005,22 @@
       <c r="C20" s="9">
         <v>27</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="11">
-        <v>10</v>
-      </c>
-      <c r="G20" s="11">
-        <v>9</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.9</v>
+      <c r="F20" s="17">
+        <v>29</v>
+      </c>
+      <c r="G20" s="17">
+        <v>15</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0.5172</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B21" s="14">
         <v>3</v>
@@ -3029,21 +3029,21 @@
         <v>5</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F21" s="11">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G21" s="11">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H21" s="12">
-        <v>0.8571</v>
+        <v>0.9091</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8">
         <v>107</v>
@@ -3051,22 +3051,22 @@
       <c r="C22" s="9">
         <v>697</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="17">
-        <v>5</v>
-      </c>
-      <c r="G22" s="17">
-        <v>5</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1</v>
+      <c r="E22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="11">
+        <v>45</v>
+      </c>
+      <c r="G22" s="11">
+        <v>29</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.6444</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="13" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B23" s="14">
         <v>4</v>
@@ -3078,18 +3078,18 @@
         <v>26</v>
       </c>
       <c r="F23" s="11">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="G23" s="11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H23" s="12">
-        <v>0.75</v>
+        <v>0.4706</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8">
         <v>75</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B25" s="14">
         <v>26</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B26" s="8">
         <v>4</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B27" s="14">
         <v>0</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B28" s="8">
         <v>20</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B29" s="14">
         <v>7</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B30" s="8">
         <v>136</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="13" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B31" s="14">
         <v>35</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B32" s="8">
         <v>11</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B33" s="14">
         <v>9</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" s="8">
         <v>17</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35" s="14">
         <v>10</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B36" s="8">
         <v>12</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B37" s="14">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B38" s="8">
         <v>15</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="13" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B39" s="14">
         <v>3</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B40" s="8">
         <v>52</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B41" s="14">
         <v>40</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B42" s="8">
         <v>24</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43" s="14">
         <v>5</v>
@@ -3320,8 +3320,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="E4:H23">
-    <sortCondition ref="F4" descending="1"/>
+  <sortState ref="E4:H24">
+    <sortCondition ref="F4"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
